--- a/src/data/Experience.xlsx
+++ b/src/data/Experience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mansm\Demo\Resume\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saish\Desktop\Data Analytics\Resume\Resume_May23\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C149B8E-F6E9-4D55-8E79-33E358E85E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0008C2-3FC3-4C88-AEF8-5111E6E479BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{72F315A5-6672-492B-ABFF-4CF6125D1BA0}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{72F315A5-6672-492B-ABFF-4CF6125D1BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,17 +86,18 @@
 •	Reviewed and treated the training data as part of data cleaning, which led to a performance improvement of ~5%</t>
   </si>
   <si>
-    <t>•	Implementing a POC migrating Qlik dashboards to Google Looker
-•	Built a PowerBI dashboard to measure, monitor and report with transparency on PA's carbon emissions
-•	Led and upskilled technical team to create a POC enhaning an exsiting Excel tool to an interactive and user-friendly Python app using Streamlit
-•	Conducted quality assurance of HSBC’s inventory data by extracting regulatory handbooks across 12 geographies and running cosine similarity to assure completeness and accuracy of the inventory
-•	Contributed to multiple successful Request for Proposals (RFPs) by providing technical expertise in natural language processing (NLP), MLOps, cloud computing, etc. to deliver innovative solutions that met clients' needs and exceeded their expectations.
-•	Built a Tableau dashboard that assesses cross-sector organizational resilience maturity to support PA’s resilience offering</t>
-  </si>
-  <si>
     <t>•	Extended SAP version comparison in a report to generate PDF with the delta as output as a part of automating the process of creation of a Fix Resolution Document Creation, resulting in saving ~30 hours per week of manual work
 •	Created Employee Time Charging report for the project’s internal use as a part of automation
 •	Conducted Design Thinking workshops to arrive at creative and innovative solutions for complex issues</t>
+  </si>
+  <si>
+    <t>•	Successfully implemented a proof of concept (POC) by migrating Qlik dashboards to Google Looker. Designed a streamlined semantic layer to improve visualization capabilities and enhance the reporting process.
+•	Built a PowerBI dashboard with 10+ metrics to measure, monitor, and report on PA's carbon emissions, ensuring transparency and sustainability reporting.
+•	Led and upskilled a technical team to develop a POC for enhancing the existing Global Market Screening Tool. Transformed the tool from an Excel-based solution to an interactive and user-friendly Python application using Streamlit.
+•	Developed the client and standard pipeline for two hospital trusts on Azure Data Factory. Additionally, created a PDF encryption tool through Azure Functions, seamlessly integrated with Microsoft Power Automate.
+•	Conducted comprehensive quality assurance of HSBC's inventory data by employing techniques such as PDF parsing and web scraping. Implemented text matching using cosine similarity to ensure completeness and accuracy of the inventory.
+•	Provided technical expertise in various areas, including natural language processing (NLP), MLOps, and cloud computing, to contribute to multiple Request for Proposals (RFPs).
+•	Built a Tableau dashboard to assess cross-sector organizational resilience maturity. This supported PA's resilience offering by providing valuable insights and analysis.</t>
   </si>
 </sst>
 </file>
@@ -135,13 +136,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,20 +456,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6886E8F5-0334-408C-A489-73EC38F7B556}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.31640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.2265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,11 +482,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -501,11 +499,11 @@
       <c r="D2" s="1">
         <v>43266</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -518,11 +516,11 @@
       <c r="D3" s="1">
         <v>43924</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -535,11 +533,11 @@
       <c r="D4" s="1">
         <v>44108</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -551,30 +549,30 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>

--- a/src/data/Experience.xlsx
+++ b/src/data/Experience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saish\Desktop\Data Analytics\Resume\Resume_May23\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0008C2-3FC3-4C88-AEF8-5111E6E479BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7C4095-CEF9-4AA3-9EDC-072121CCA3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{72F315A5-6672-492B-ABFF-4CF6125D1BA0}"/>
   </bookViews>
@@ -91,7 +91,9 @@
 •	Conducted Design Thinking workshops to arrive at creative and innovative solutions for complex issues</t>
   </si>
   <si>
-    <t>•	Successfully implemented a proof of concept (POC) by migrating Qlik dashboards to Google Looker. Designed a streamlined semantic layer to improve visualization capabilities and enhance the reporting process.
+    <t>•	Performed sentiment analysis and topic modeling on survey data, utilizing NLP techniques and machine learning algorithms to generate interactive scatter plots at word, phrase, and topic levels, enabling insightful visualization and interpretation of sentiment trends and key themes.
+•	Developed a conversational AI system with natural language querying (NLQ) techniques for an AI startup database, enabling seamless and efficient data retrieval.
+•	Successfully implemented a proof of concept (POC) by migrating Qlik dashboards to Google Looker. Designed a streamlined semantic layer to improve visualization capabilities and enhance the reporting process.
 •	Built a PowerBI dashboard with 10+ metrics to measure, monitor, and report on PA's carbon emissions, ensuring transparency and sustainability reporting.
 •	Led and upskilled a technical team to develop a POC for enhancing the existing Global Market Screening Tool. Transformed the tool from an Excel-based solution to an interactive and user-friendly Python application using Streamlit.
 •	Developed the client and standard pipeline for two hospital trusts on Azure Data Factory. Additionally, created a PDF encryption tool through Azure Functions, seamlessly integrated with Microsoft Power Automate.
@@ -499,7 +501,7 @@
       <c r="D2" s="1">
         <v>43266</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/src/data/Experience.xlsx
+++ b/src/data/Experience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saish\Desktop\Data Analytics\Resume\Resume_May23\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7C4095-CEF9-4AA3-9EDC-072121CCA3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D94966-281D-46DD-8EB8-308C54FBA09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{72F315A5-6672-492B-ABFF-4CF6125D1BA0}"/>
   </bookViews>
@@ -91,15 +91,15 @@
 •	Conducted Design Thinking workshops to arrive at creative and innovative solutions for complex issues</t>
   </si>
   <si>
-    <t>•	Performed sentiment analysis and topic modeling on survey data, utilizing NLP techniques and machine learning algorithms to generate interactive scatter plots at word, phrase, and topic levels, enabling insightful visualization and interpretation of sentiment trends and key themes.
-•	Developed a conversational AI system with natural language querying (NLQ) techniques for an AI startup database, enabling seamless and efficient data retrieval.
-•	Successfully implemented a proof of concept (POC) by migrating Qlik dashboards to Google Looker. Designed a streamlined semantic layer to improve visualization capabilities and enhance the reporting process.
-•	Built a PowerBI dashboard with 10+ metrics to measure, monitor, and report on PA's carbon emissions, ensuring transparency and sustainability reporting.
-•	Led and upskilled a technical team to develop a POC for enhancing the existing Global Market Screening Tool. Transformed the tool from an Excel-based solution to an interactive and user-friendly Python application using Streamlit.
-•	Developed the client and standard pipeline for two hospital trusts on Azure Data Factory. Additionally, created a PDF encryption tool through Azure Functions, seamlessly integrated with Microsoft Power Automate.
-•	Conducted comprehensive quality assurance of HSBC's inventory data by employing techniques such as PDF parsing and web scraping. Implemented text matching using cosine similarity to ensure completeness and accuracy of the inventory.
-•	Provided technical expertise in various areas, including natural language processing (NLP), MLOps, and cloud computing, to contribute to multiple Request for Proposals (RFPs).
-•	Built a Tableau dashboard to assess cross-sector organizational resilience maturity. This supported PA's resilience offering by providing valuable insights and analysis.</t>
+    <t>•	Analyzed customer survey data through NLP and ML algorithms, generating interactive scatter plots at word, phrase, and topic levels; presented actionable insights and findings as sentiment trends and key themes, empowering informed decision-making and driving strategic initiatives
+•	Developed a customized web scraping tool to gather data on Sustainable Aviation Fuel (SAF) usage among carriers and trained a custom NER model to accurately extract and track SAF percentage metrics to monitor the adoption of SAF in the aviation industry
+•	Architected and deployed a robust conversational AI system incorporating NLQ techniques for an AI startup database with an efficiency of 89%, enabling seamless and efficient data retrieval
+•	Led the successful implementation of a proof of concept (POC) for migrating Qlik dashboards to Google Looker, resulting in the design of a streamlined semantic layer that elevated visualization capabilities and revolutionized the reporting process; achieved a remarkable 40% reduction in reporting time
+•	Built a PowerBI dashboard with 10+ metrics to measure, monitor, and report on PA's carbon emissions, ensuring transparency and sustainability reporting
+•	Managed, mentored and upskilled a technical team of 4 peers to develop a POC transforming an existing Excel-based screening tool to an interactive and user-friendly Python application using Streamlit
+•	Engineered the client and standard data pipeline for two hospital trusts on Azure Data Factory; created a seamless integration between Azure Functions and Microsoft Power Automate to develop a PDF encryption tool, enhancing data security and streamlining document workflows for the organization
+•	Employed advanced data analysis techniques, including PDF parsing and web scraping, to conduct comprehensive quality assurance of HSBC's inventory data for 12 countries. Implemented text matching using cosine similarity to ensure completeness and accuracy, resulting in enhanced inventory management and operational efficiency
+•	Built a Tableau dashboard that assessed cross-sector organizational resilience maturity, yielding invaluable insights and analysis that enhanced PA's resilience offering and guided strategic decision-making</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,7 +541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>11</v>
       </c>
